--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3456.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3456.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.756871612104359</v>
+        <v>1.180180072784424</v>
       </c>
       <c r="B1">
-        <v>1.958520467126651</v>
+        <v>2.077945470809937</v>
       </c>
       <c r="C1">
-        <v>2.014491629134204</v>
+        <v>5.655363082885742</v>
       </c>
       <c r="D1">
-        <v>2.552214959287485</v>
+        <v>0.8498803973197937</v>
       </c>
       <c r="E1">
-        <v>3.912049139918623</v>
+        <v>1.022581934928894</v>
       </c>
     </row>
   </sheetData>
